--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/55_Malatya_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/55_Malatya_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{883FEE7C-E23D-4FDB-A31C-1EBB136DDCF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A317B500-CEAA-4995-9FFF-B928EB6D40EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="657" xr2:uid="{A3FC0F30-05C5-496E-9D7B-4335CB4C890B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" xr2:uid="{CEDEDD47-9762-4FA4-935E-ABBB707FD743}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -975,14 +975,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{36FA467B-0DB4-41C7-BA34-5AA10B956319}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{6E7EFAA7-6A28-4D52-B7AD-5EA935E2CC59}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{EA9B7B97-279F-4704-BCC1-2F95932BEC14}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{65037303-4D50-4308-9290-A55F20949F13}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{C8197B7F-662F-43A8-AE9A-FE953B6D0092}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{4F79693C-3AA0-48FA-9021-2301AB165273}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{EEB13C63-E321-48E7-B36E-A1B12F02460B}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{DEB2E9DD-EF9D-4AFA-AD00-F9BB957DAA7E}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{89F711B6-FCD8-4097-BC6B-B7491CD9A17A}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{9A02C694-08B0-46BC-B178-A24E6D9856EF}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{1EAFA8A3-ECD1-4AC1-B63E-ADB1ABC1BE2E}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{B26B510C-CA4F-46AC-A61F-55BFD6BE44D3}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{5D470DDE-05EF-481D-A260-2CE558F1CB31}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{64DDE531-CF96-4D3B-AD35-A652C3D53630}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{1342AE02-72F9-4179-9402-C0F73ADABA8E}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{775B2FCA-5712-47C9-8C9A-EC5C48665729}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1352,7 +1352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F90445A-619E-4A63-8F88-0F1BB227774A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D793E787-7DC4-4715-97EA-3074C106DB80}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2640,17 +2640,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A5ED74C2-9868-46B5-97A7-DB81FC71E8D0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{571E405D-B3CD-4253-9D08-83E8DA769CD8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{04C6629E-527A-4986-B0EF-BAFED451E1A5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{95BAB05E-D123-4ED7-82A7-5F1CF033E5EB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3172B6D1-8792-4F83-BBE9-E947977EE7C8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EE8371A8-5325-47A9-A9E8-84A7932A230D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4BBA7D60-A954-4BE6-8F20-EE5EB1AE159E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1AED6258-9786-4A43-B721-76547185778C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{AB09CAF9-5706-4C08-BB9A-E44DAFE48D21}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{EAA276FB-FC4A-45C2-A40A-EC23CD87CE23}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B86035AC-E2FA-4311-855B-6075B1ADA7DF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{03B70532-0DB2-4D94-AAAC-9871CBB3C1FF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{64221ADD-A289-461B-83EE-7A00DB9A8455}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2462D93E-D6EB-4D80-805B-D1C66584B1C2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F18539D1-BE69-424C-9B6C-51526DDD4FEA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CC2BC4E7-F0F5-4237-8080-AA47BCF5F01B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2229A013-61F5-47F1-921B-48ACDDBA116A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B4073BBB-6FF2-41A1-8081-C9C9FD407EE7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BAA3BCBB-21D4-48EF-B501-FF491302BC31}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{6503C139-EA93-413B-81F9-4335E4F4C95E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{278B85E0-AF97-4AC7-8BB5-1F0BF8AA704B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9E787BCA-706B-47E5-9A44-66B60710F691}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2663,7 +2663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF3E7BB-51E7-4C60-9657-B10173819220}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC50E30-1992-4C01-BA24-2C15905CA5EF}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3932,17 +3932,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8FED08B2-347F-4E98-91F5-4E1A4EED28F6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E031D5C2-83AA-4721-8346-8F1E0BAA1DEB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A7749DDE-2C58-40A9-B13D-9E743F4D979C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7CB8AECC-186D-47E6-A570-394B9D284BD0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E118B0C8-9D01-47A3-A316-3B71F65829C4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A699DD59-0DDC-44C2-8EB3-CBC8224A3826}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F0A733F9-3083-4439-8E57-6DD83FD9E9A3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3202196F-595D-498F-8188-5C5F6F7A74F8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A25B55A4-EF2B-4B8C-9278-07D0281CC7FC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{677FA841-E1B5-47FE-A039-C8C44771B8A6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EF012BF3-96CF-46D5-AF0F-7C6E1F04E4C1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{72894D06-B342-4881-9301-DF0BF471881F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3963AC44-FE26-40F5-9E22-3C13C417D00F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B0C7DAF2-F22A-4A71-A9A7-C6536CCA8C7D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0C72FB6E-2767-4B10-89AB-89A2571F885A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EB011F07-E89A-416F-A24B-C71B7BD0CACD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{468E06B3-CABE-456C-AA4A-C731AEF08277}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{56AE3F07-155C-408B-8CE6-AE76A8861198}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FCD0B47A-72B1-43D0-AEF5-24473B8B9B1E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E360B3EE-F43C-432E-BFB9-2405CE7E5240}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{A1472436-DFA8-4989-AAB1-1D2E43985694}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5E2CC643-45D8-4B4C-AA2E-43BA4D42FB8B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3955,7 +3955,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE466890-C426-40BB-9F98-5032D1413968}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE25F3BD-DFA8-4C01-9B33-A7E4C8C6F339}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5206,17 +5206,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{49B9BEF9-D075-4476-AAA8-39727A5C0F60}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{05998CAD-CB0D-408C-A46B-8AD416AD0CD4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{01ECD475-74EE-434A-AC4A-716C14A31E9B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A320B8CB-7590-44F4-9CBB-F9B45D770605}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{54A9B7C9-D1F3-476A-A1BF-824CC39DDC60}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DF90DD56-663E-4FF4-9134-073D61E919AC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{20B62A1D-332A-40A2-8B11-6EB853F5E5E1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6AC2B464-E607-4E9C-850A-D30869E297CF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D30400AA-3A2C-4651-AF83-ACBDA77CDE15}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C2D91D99-4416-4416-B969-349708F4F803}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{09B817F1-D1CC-4E8D-858F-610584D588F2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A4356D85-8068-4E84-A86A-66D5813D3F8D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{10C8669D-4FF1-4E35-BEEF-2EF8792E1903}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1BD6660C-B0FB-4F06-AFCA-716F26CE9C22}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F525115D-5D91-4E80-BFBA-BB4E996783E5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D25BB5CF-3C85-4F83-A920-55BA32AC7123}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{30ADA4DF-DFB9-4DC3-B8D3-85B9580B8BDF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0C482702-DC98-489F-B1D4-1BD42F6211D3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9D473823-CB00-4236-8036-EB51B6D1C816}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{BFCE272D-59C8-4F3F-82CB-9DE24BD4FA9E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7F311CE2-6777-4D25-9C7A-21391158FAAF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A30288C7-E3C6-40DC-AC59-07DA8D91F402}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5229,7 +5229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CAB0459-6204-47A3-9EDA-0C0EB2DE47C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A84FE72-227B-4E36-B31F-7F01D6E9D4A2}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6476,17 +6476,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1AE4F14F-4396-4E2D-8893-C0B5D6A0ECDD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C39CF8BC-DF71-4C6A-B5CB-533DEC9DCCDF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5BA7AAE6-F6EE-47D2-824E-09D8838DA133}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2C282C77-A04B-4B72-87EF-59A0D5E2C9A8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{84CB1995-B494-4228-AA67-5BD431FC6C54}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5062321C-B60A-4710-80F0-F054DCFD9C49}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7BF0BF49-C97C-4A82-8E88-F585458EC171}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1A859DEF-FCA4-4FAF-8CD4-F5025445B6E2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{8430A7C0-6F0D-4F3E-8102-367E202BCE6B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{22B8AF52-7F9C-499F-9DE9-347931E3138B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A8C557BC-FE02-4B2F-B2F9-4332B3885213}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2232F49E-BC97-4B1D-8BB6-8FC4FBE68EC5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EC25776A-2AB6-41AF-9199-BAF202A0073F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{19CACE37-A8BE-4EF0-BA6D-470A0D37A824}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2D445791-5CD2-4F00-BA5E-0A0838DB18B4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{397F3DB3-F140-41BF-8665-C77681C1F3DC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7CE69858-7179-4E7E-AF6E-4283FB4C1EF2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{11ECCB11-AC37-40F6-9063-750595C313E9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2AF114F9-1989-4A3C-A1F4-92F5D196B9A6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{233D9C26-2AC6-4A57-B013-E68F98DDE645}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8D7DC0FE-0699-4CE4-8EAC-82355CF2FFE6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7C0EA29D-27B0-4742-8846-16C8544CC429}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6499,7 +6499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E686A32F-7477-4DF2-A7A2-C8D0AFF8B4C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A38B90-AC14-44D8-B1C4-65126D408FE9}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7782,17 +7782,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BEB677D4-39B8-4161-B5FD-C5C34152E120}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{30798693-4203-40E0-ADB7-E1EBFFBE6150}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{34E113A3-4DB4-45CE-BCCA-A130649CCDD0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D01F503F-3A90-41D5-BC90-18C4CBA64230}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D583B6E0-2BB8-40E5-A5EE-BA85F78379AC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{42E73BBC-7B16-446A-A085-5B4094A69DF5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FED53D42-875C-427E-A328-A8C7A78E6E5C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C7571501-A3D8-4FAE-BFE7-B8E78F014846}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{55E20AE9-B0FC-434F-9F44-DD9734A744E4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{55F8E448-7284-45E4-AC26-45D717D23240}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C548BE09-9EAA-4A8C-AA2F-4FA85728AA53}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{49B0541D-93C1-4E75-91F5-AC283F80E84A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1AF81133-F6EA-416F-9C64-40C4F7E10B2E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6F7DF2AE-CCDE-4639-8071-61E2D79A59B3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EE497131-71FF-486D-8954-FCDF2ECC960B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{183BE2A0-8705-4B88-B2BD-E7D98F7B5E97}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E0593481-A3B1-4840-98B1-A5F3B4A0CB0F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D0A00190-8578-4CBB-8EB6-FAE3A01A3536}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7DB440AE-D757-4B35-A47B-D880F8FBFA04}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{60F8169D-EA2A-49B0-9540-DD626BC95684}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4AA92FA2-C607-4ECA-928C-D31CAA570C6F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2B284A24-B7C9-40BA-8FD8-4DE2896B4DD1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7805,7 +7805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5980F40-780C-483D-A84E-B9DB4F463C32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C285DEE7-E5B7-481A-9D36-D25CD40FF858}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9088,17 +9088,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0BB08AD9-AC0D-4366-81F0-8DD7158809CD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D924D8C3-CF35-4650-AE3A-EA43A59CEF73}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1B0B3103-61FB-442D-8847-D7C5CCF69A4D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{39B34E02-404D-48FF-8EED-EDEC15A86A96}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{80CA9DCA-C062-4CD8-A70E-B30E1EB8477A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{85D1C2C5-46FB-4107-A9D7-4014E5F1E144}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8BC4B8A5-FCC3-4C95-8041-2A0CEC57C840}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0E52B87B-F808-48C2-8F07-E32451B7C975}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{DCBAEBE9-9258-4911-B6B8-2DC82E7AA0FC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2036575B-460D-40D1-A868-58C6D53A0EB0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2D1CDE7E-D9B8-4233-821D-5B2B1CB4B40D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6D40E6BE-07AB-47C8-9F36-67EEC87D1472}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{72D5CFA5-8332-4982-BDE3-7C0A1E095E26}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9872055A-8DB7-400D-8021-3B1437753DBF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{58261FE5-F782-4FFC-8EF1-B3536B10DB89}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BC31FE4E-226D-4F5F-9E45-7F672EAA1AB6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F7981688-D927-42D3-A60F-A1C4DDB162A6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{45EE3716-0918-4053-B9C8-E575A44A5DC1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A530C0F0-AD23-45AA-A444-20DD65103F0A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9E27949D-5302-41FF-8764-90C115E32778}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{6BD3A9B4-7F17-4A19-89F6-6C4CCCB5A86B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{25241BFB-861D-472D-8045-94D2041FB58C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9111,7 +9111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9B28F9-1AC6-4BD2-A1A6-4A169C7253EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A2B885-C7D1-4DF0-BBF2-0B3143782AC9}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10394,17 +10394,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{74043260-09B8-424E-9794-439DBEA48293}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C076813B-F70D-451E-A289-71E7FDB0B803}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3B39193E-96D6-423B-A9D1-718434275B3B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{39C6F269-F137-4870-A2F9-FC16D5248291}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7DE5BFB4-6F57-4AE3-9BCB-AFA5686DDC8C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{40BE76E6-2F3C-4692-9A14-DB9EAE82FBAE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8E828849-A10E-484A-AB9A-03F70F08578D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FE651F80-D5FB-4CF9-8536-16738C6208C6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{4DD04FB3-B18B-489F-A6CA-D5274E69C7C2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E801663D-4AF5-4C9A-A2C2-003F82C4040C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FEBE2D95-6EF1-425E-8AD1-6D243699F239}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6E2205E4-12EA-4788-868B-16CBFAE9CEB9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7877550A-D478-407A-9DF8-57DA1458E64D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D1887208-3F51-4950-97E9-4A9DFC00F8BF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{755426F9-ACF5-4448-9862-A416FC500090}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3E0C5F4D-E981-4AD1-AD86-F46EB29D7CAB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{ABF3500B-A20F-4BB7-9B24-E6C8F7485568}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6A7ECE5B-6A5A-40B7-AE8A-63CF3C8F8A52}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7C9511AD-DAD2-42E9-9974-D22279484874}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{DEEEE6DF-DE93-445F-B7A3-B314D7966553}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F1D43548-0556-4E17-815B-8414AF59D302}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{10E6D1CB-FE86-420B-9FC2-9538CC8ACB48}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10417,7 +10417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1598144-B844-41CE-8A5D-24A52DEA856F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8371450E-8012-488F-97DF-8331AD783852}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11696,17 +11696,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E537EEBC-FCA8-4DF6-BF69-FC8A336603A4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E0B1D6CF-0088-4E25-B1E1-2DBDA8583611}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A114A996-A91E-44EB-AE5D-8DF92549EBFE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D0F92B41-FECD-4BD9-897C-BC8315F9E7C6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C1571020-89EF-4543-ADD7-16B920154EF2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E280DFD3-A048-4CC0-B6B2-3F62F6B11A57}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6C63E63E-1544-4589-BC80-5E114EE494A5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{28108917-788A-4074-B004-BA043DCFFED4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{BD6450B9-67A5-427B-AA67-67A62B1EE37A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{974AE5F6-8E2E-4FB8-88D7-AB63C241B6C3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{805ACE4E-3F7B-4174-9547-1DAD357D85F7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A69A35DE-71E8-4E08-8321-3E6FD4FDEB77}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4FBC75B0-52D3-46CE-BAF1-FAD293A563D4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{87609055-862F-4EBB-A696-2C1658DDB40A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EC6A2945-1810-4492-99C8-15AA41F9E77D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F55AE08F-6FCF-4904-B839-AACC9EB74556}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D7B93ED6-A2F8-43D7-B96E-E95B03D795D0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B00999BE-FB29-4374-8454-7A4C080DA617}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0CF65CF7-4317-47F8-B909-319B8A560883}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D4679FF7-6EC4-46F3-A583-EEF7233E13E7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D8CC8387-7781-4DFD-B43C-8C34AA1366F1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E199EF15-3EF1-4FFF-B77D-487143FF177D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11719,7 +11719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D1D5B62-C866-4A4A-A723-DF8B1A54C082}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C08D1010-F421-423B-84D2-54158044D84D}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12998,17 +12998,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5959F0B3-5BF7-4A99-90B7-E7884F7F5DE0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{383965AE-2C7D-4A58-9B33-EEAD6DAF0FFF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{939E2FBA-9846-417D-9F63-703B8E788943}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{51E6B611-2E1A-4C74-A475-13303F910CC3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E637B87D-7988-4917-A58F-9B19DE307F7A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{32098615-C07C-496F-8E27-D0712075D7A3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0D30EB4C-EC96-4255-A3B2-92D6D626205A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5A2F66D7-4BF4-456B-AF63-755723B9DC93}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9C77892E-7114-4FF9-B046-FBA0985B6AFA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B82DEBEB-17B2-4D4B-9935-B3454901DA24}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DA3A749A-AFF5-4F8B-9863-07EDC545D2F6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{15DC9FF2-DF93-4CC8-9175-9BCD2670121E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CB3A28E5-9FA3-4DEA-A01C-D22D67B3F244}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{308CE8C1-3C7A-4C74-BC48-EB5C40A2815B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DBCB26A4-0CA9-40E7-BB29-FCB109E741DB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{110A5448-D51A-40F1-8263-81F172693A0A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C0C88ABD-4B30-4A27-B315-8CBF78500EBC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EF24DF42-E823-4612-808F-C979DC807E7E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E13039B8-BB27-4EE2-8F02-7300F980D419}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{67285F0A-4555-4875-9B21-031DE18BB2C1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{FC4A4E83-1AA5-4F42-9DA3-A97278A8DA44}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DF034D0D-F645-4767-B24E-7A1A9A0FD14D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13021,7 +13021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAEB4E63-5608-468C-BD16-91A287C41DAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4701ECC3-9DAF-4310-AA17-39A6CBBB2011}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14300,17 +14300,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{76BF5A06-7229-4D69-9582-22A828A69B51}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BCE7DA63-055B-4B96-A32F-2A4A7A68D381}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{843BFF4C-86AA-4D94-9C97-67E6DAB3F716}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5BA431C0-4E45-40FC-974F-7635DC99223F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{46ABA4FA-C6CA-40E5-8741-3939B1B0493F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AF283995-27D5-4A50-9B4F-F503D572C854}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C7D13C2E-4ACE-4518-9B53-745F83E013D7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{45EFE585-BB28-4F78-A018-B659263D2F24}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D47CE302-690D-4390-BA4F-D397F6B261F3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{88579A5E-6C66-413D-BBC2-6AAD1F12D99B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3E9F7F1A-6B7B-47DF-9534-A95FE0F001BE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{82F624A9-905A-472E-971E-66B7941F1819}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FA5B7BF6-F6E0-44E5-86B9-5887F7F87CB9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{485CF013-ECEF-4380-A6EB-A020E6E60DD0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BD1B7CA1-9757-47B9-B5DE-01E3A932BDC0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{15E65EC9-5688-470E-B591-B6FF98232E4F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{75FF4583-498A-4EBE-9423-76FFDD064473}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B06D2BC2-5676-4DBA-96A0-1BD05C7171EB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0E14C310-A05F-4779-981A-3FF4BEDAC5F8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C80B248D-3A6E-457E-85A7-94E610D91817}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C2A7EC41-AE85-45FF-8001-A8275BCCFDDC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F227C5DE-E2D3-4410-9A87-7428999D0551}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14323,7 +14323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC71A5A-6B85-4998-BD23-3970E9BB1ED5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44077B5D-27E3-4769-B79D-106FB6743AB5}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15602,17 +15602,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FE1909CB-73EA-454F-A295-144D85EC2545}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0694D0AA-4AAC-4267-8525-FAF8435E9817}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BA09411E-0A24-4B46-8551-033893056FE4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{47992CBF-C0DE-4EA8-A6C0-6B9FECE256FB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5A346DB8-9DD3-4BC6-B9D5-B7563D45EE85}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{32EA71EA-97C4-4148-A790-C5B6A053031E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0C74E4C8-AFB2-4DDE-AB81-E26C5FF0C861}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{674E11F1-794D-454F-B446-C42620EEB5CC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{971FBFD3-542C-4394-9415-FD852466F99F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{6264B617-F566-4451-841D-BA332E102A57}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3C196BBE-D859-4C20-87F8-F12306DB88C5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{05190FD4-1B85-46FB-9BA6-0FB5387363A3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F4B30F37-DBC8-4075-A318-DAFD56E35F2E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D5E0325D-D2D5-4847-A39E-F404F0B0B4C1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{882BA295-E545-4466-B50E-5E7461E3A6A7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9E37B102-32A3-45CE-A4BE-EEAB0F10DF32}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{828BFF4D-D482-40A3-911B-BBD37879129D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C9BD829E-E583-49DB-8E8D-767BBD245E51}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{04D7C180-D3C4-4D0A-B3C1-E79A9BC47793}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{632C0CA1-411E-441B-BCAF-70A877966E4A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{481C3235-59BC-4241-9E63-36A6EF66A9B2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{41A1BA35-00DA-45E6-8273-1E433CF61F54}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15625,7 +15625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D06F7D-AE2B-43B3-BDD2-6571B01DF461}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC317CBB-30FC-41A5-AB8E-B786D879B8CE}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16904,17 +16904,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8976D08A-598A-480D-AF47-32461AAAA6CC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8849E6C4-8101-452E-825C-2F202937FEA2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1B94A670-49A9-4FCB-9E2E-6485EF72CCDE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F947C9FD-D0B7-4AA3-8A2C-9A364951F761}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{370CC7F2-4CDD-4108-9C65-7315240AE2E0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EEC3C8D4-DC9F-43A6-8E35-45CEA820CA00}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F0E427ED-297B-4F66-8679-FA2C646EE48D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DB65041B-FA91-4297-8847-E7870AE85A2F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5DADA2EE-2A80-41E9-AFDB-28A215B52974}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2C6155BC-38D9-4236-A9C1-D564ECEC7BFE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{913FC2A5-30BE-4A0C-8790-EA9961F50FF3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{28576549-85A3-444B-A2A4-B2265061FE9F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E133C23F-7A67-42F1-9F01-AAE302F3F671}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{88EEA094-B25C-4EFB-A20C-F48620E2BCF3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DE518E45-2A79-4807-940D-A2D062066471}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C7D55F4F-B820-4ADB-9D12-18F7DFD821E8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A448CFF0-98B9-4A2A-9C30-F8B00694BBB9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F60141F7-FEE0-4A58-85BB-FBDDED343D87}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D30D3C8B-7932-4C83-975E-5C0CED172490}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{684ABFA4-C65E-4F47-8AEC-092592679CC0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{3C932923-BC54-4E72-99BC-D30FE618F619}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CC263342-D87F-4292-AFFF-1359E369CD76}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
